--- a/analysis/ec2/1_outputs/rf_predict.xlsx
+++ b/analysis/ec2/1_outputs/rf_predict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunwookang/Desktop/research/ecig/analysis/ec2/1_outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1874D-EF60-5745-B214-19102E517756}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D47A69-514D-9449-B381-1D846A1F42FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="460" windowWidth="25440" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rf_predict" sheetId="1" r:id="rId1"/>
@@ -823,6 +823,1050 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> Forest Feature Importance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-543A-AE4C-B05F-95E1A21E187A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-543A-AE4C-B05F-95E1A21E187A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>rf_predict!$G$30:$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>H3O+</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NO+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O2+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OH-</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O2-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NO2-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NO3-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rf_predict!$I$30:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-543A-AE4C-B05F-95E1A21E187A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE50FE2-EDDD-C141-B610-4F2CF889D99D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1988,5 +3032,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/ec2/1_outputs/rf_predict.xlsx
+++ b/analysis/ec2/1_outputs/rf_predict.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunwookang/Desktop/research/ecig/analysis/ec2/1_outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D47A69-514D-9449-B381-1D846A1F42FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8356C3D-D384-3B4B-9BC7-DDA3BCE7D512}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="460" windowWidth="20240" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rf_predict" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Index</t>
   </si>
@@ -191,6 +192,9 @@
   </si>
   <si>
     <t>m/z: 2914 importance: 0.0141</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
 </sst>
 </file>
@@ -921,6 +925,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D146-1B4F-996B-5264A6B4EEBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -936,6 +945,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D146-1B4F-996B-5264A6B4EEBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -951,6 +965,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D146-1B4F-996B-5264A6B4EEBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -966,6 +985,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D146-1B4F-996B-5264A6B4EEBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -981,6 +1005,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D146-1B4F-996B-5264A6B4EEBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1018,6 +1047,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D146-1B4F-996B-5264A6B4EEBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1035,6 +1069,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D146-1B4F-996B-5264A6B4EEBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1044,6 +1083,16 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-543A-AE4C-B05F-95E1A21E187A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-D146-1B4F-996B-5264A6B4EEBA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1142,28 +1191,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C44"/>
+    <sheetView tabSelected="1" topLeftCell="F26" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2696,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="I30" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2713,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2730,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="I32" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2764,7 +2813,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2798,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2815,7 +2864,7 @@
         <v>21</v>
       </c>
       <c r="I37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2827,7 +2876,7 @@
       <c r="D38" s="3"/>
       <c r="I38">
         <f>SUM(I30:I37)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2869,6 +2918,9 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="11" t="s">
@@ -2877,6 +2929,15 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="11" t="s">
@@ -2885,6 +2946,15 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="11" t="s">
@@ -2893,6 +2963,15 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="11" t="s">
@@ -2901,6 +2980,15 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
@@ -2909,40 +2997,80 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="G48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="G49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="G50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="G51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="I52">
+        <f>SUM(I44:I51)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="11" t="s">
         <v>46</v>
       </c>
@@ -2950,7 +3078,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:9">
       <c r="A54" s="12" t="s">
         <v>47</v>
       </c>
@@ -2958,7 +3086,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:9">
       <c r="A55" s="12" t="s">
         <v>48</v>
       </c>
@@ -2966,7 +3094,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:9">
       <c r="A56" s="12" t="s">
         <v>49</v>
       </c>
@@ -2974,7 +3102,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:9">
       <c r="A57" s="13" t="s">
         <v>50</v>
       </c>
@@ -2982,7 +3110,7 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:9">
       <c r="A58" s="13" t="s">
         <v>51</v>
       </c>
@@ -2990,7 +3118,7 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:9">
       <c r="A59" s="16" t="s">
         <v>52</v>
       </c>
@@ -2998,7 +3126,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:9">
       <c r="A60" s="16" t="s">
         <v>53</v>
       </c>
@@ -3006,7 +3134,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:9">
       <c r="A61" s="16" t="s">
         <v>54</v>
       </c>
@@ -3014,7 +3142,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:9">
       <c r="A62" s="16" t="s">
         <v>55</v>
       </c>
@@ -3022,7 +3150,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:9">
       <c r="A63" s="17" t="s">
         <v>56</v>
       </c>
@@ -3034,4 +3162,16 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B43A19-62D1-B840-A2EF-566900EA6D4E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>